--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H2">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J2">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.664704</v>
+        <v>3.8207075</v>
       </c>
       <c r="N2">
-        <v>3.329408</v>
+        <v>7.641415</v>
       </c>
       <c r="O2">
-        <v>0.03573178976417293</v>
+        <v>0.08177715001615976</v>
       </c>
       <c r="P2">
-        <v>0.02637436895330882</v>
+        <v>0.06102217135072575</v>
       </c>
       <c r="Q2">
-        <v>4.426469577152</v>
+        <v>0.3739835857916667</v>
       </c>
       <c r="R2">
-        <v>26.558817462912</v>
+        <v>2.24390151475</v>
       </c>
       <c r="S2">
-        <v>0.01669438564780358</v>
+        <v>0.001449611438743528</v>
       </c>
       <c r="T2">
-        <v>0.01232246941532924</v>
+        <v>0.001081701154778561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H3">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J3">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>80.070488</v>
       </c>
       <c r="O3">
-        <v>0.5728870004378619</v>
+        <v>0.571267346780068</v>
       </c>
       <c r="P3">
-        <v>0.6342895171704658</v>
+        <v>0.6394201910081091</v>
       </c>
       <c r="Q3">
-        <v>70.96948950278133</v>
+        <v>2.612522089022222</v>
       </c>
       <c r="R3">
-        <v>638.725405525032</v>
+        <v>23.5126988012</v>
       </c>
       <c r="S3">
-        <v>0.2676607183979513</v>
+        <v>0.01012649230633998</v>
       </c>
       <c r="T3">
-        <v>0.2963488222081783</v>
+        <v>0.0113345943563179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H4">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J4">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.067451333333333</v>
+        <v>1.923966</v>
       </c>
       <c r="N4">
-        <v>3.202354</v>
+        <v>5.771898</v>
       </c>
       <c r="O4">
-        <v>0.0229121493227341</v>
+        <v>0.04117992707057289</v>
       </c>
       <c r="P4">
-        <v>0.02536789300533437</v>
+        <v>0.04609273920797539</v>
       </c>
       <c r="Q4">
-        <v>2.838366972200666</v>
+        <v>0.1883242053</v>
       </c>
       <c r="R4">
-        <v>25.54530274980599</v>
+        <v>1.6949178477</v>
       </c>
       <c r="S4">
-        <v>0.01070487258931846</v>
+        <v>0.0007299703317654206</v>
       </c>
       <c r="T4">
-        <v>0.01185222995260937</v>
+        <v>0.0008170566226103501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H5">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I5">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J5">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.8654315</v>
+        <v>11.1186085</v>
       </c>
       <c r="N5">
-        <v>23.730863</v>
+        <v>22.237217</v>
       </c>
       <c r="O5">
-        <v>0.2546837779083819</v>
+        <v>0.23797899087419</v>
       </c>
       <c r="P5">
-        <v>0.187987334788174</v>
+        <v>0.1775801034412176</v>
       </c>
       <c r="Q5">
-        <v>31.5503366091095</v>
+        <v>1.088326462008333</v>
       </c>
       <c r="R5">
-        <v>189.302019654657</v>
+        <v>6.529958772050001</v>
       </c>
       <c r="S5">
-        <v>0.1189917783213091</v>
+        <v>0.004218501956643114</v>
       </c>
       <c r="T5">
-        <v>0.08783027899160098</v>
+        <v>0.00314784935878518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H6">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I6">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J6">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.769714</v>
+        <v>2.755806999999999</v>
       </c>
       <c r="N6">
-        <v>8.309142000000001</v>
+        <v>8.267420999999999</v>
       </c>
       <c r="O6">
-        <v>0.05945011146419212</v>
+        <v>0.05898437460982898</v>
       </c>
       <c r="P6">
-        <v>0.06582202505473476</v>
+        <v>0.06602127758937165</v>
       </c>
       <c r="Q6">
-        <v>7.364705532282001</v>
+        <v>0.2697475751833333</v>
       </c>
       <c r="R6">
-        <v>66.28234979053801</v>
+        <v>2.42772817665</v>
       </c>
       <c r="S6">
-        <v>0.02777591310534526</v>
+        <v>0.001045578430217305</v>
       </c>
       <c r="T6">
-        <v>0.03075295913346385</v>
+        <v>0.001170317126178924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.659013</v>
+        <v>0.09788333333333334</v>
       </c>
       <c r="H7">
-        <v>7.977039</v>
+        <v>0.29365</v>
       </c>
       <c r="I7">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="J7">
-        <v>0.4672138103908383</v>
+        <v>0.01772636290769578</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.531414666666667</v>
+        <v>0.411715</v>
       </c>
       <c r="N7">
-        <v>7.594244</v>
+        <v>1.235145</v>
       </c>
       <c r="O7">
-        <v>0.05433517110265682</v>
+        <v>0.008812210649180346</v>
       </c>
       <c r="P7">
-        <v>0.06015886102798208</v>
+        <v>0.009863517402600455</v>
       </c>
       <c r="Q7">
-        <v>6.731064507057333</v>
+        <v>0.04030003658333334</v>
       </c>
       <c r="R7">
-        <v>60.579580563516</v>
+        <v>0.36270032925</v>
       </c>
       <c r="S7">
-        <v>0.02538614232911046</v>
+        <v>0.0001562084439864322</v>
       </c>
       <c r="T7">
-        <v>0.02810705068965641</v>
+        <v>0.0001748442890248686</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H8">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I8">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J8">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.664704</v>
+        <v>3.8207075</v>
       </c>
       <c r="N8">
-        <v>3.329408</v>
+        <v>7.641415</v>
       </c>
       <c r="O8">
-        <v>0.03573178976417293</v>
+        <v>0.08177715001615976</v>
       </c>
       <c r="P8">
-        <v>0.02637436895330882</v>
+        <v>0.06102217135072575</v>
       </c>
       <c r="Q8">
-        <v>5.047714358997333</v>
+        <v>0.2365068885266667</v>
       </c>
       <c r="R8">
-        <v>30.286286153984</v>
+        <v>1.41904133116</v>
       </c>
       <c r="S8">
-        <v>0.01903740411636934</v>
+        <v>0.0009167329903641345</v>
       </c>
       <c r="T8">
-        <v>0.01405189953797958</v>
+        <v>0.0006840668525353241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H9">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I9">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J9">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>80.070488</v>
       </c>
       <c r="O9">
-        <v>0.5728870004378619</v>
+        <v>0.571267346780068</v>
       </c>
       <c r="P9">
-        <v>0.6342895171704658</v>
+        <v>0.6394201910081091</v>
       </c>
       <c r="Q9">
-        <v>80.92989344442488</v>
+        <v>1.652156655950222</v>
       </c>
       <c r="R9">
-        <v>728.3690409998239</v>
+        <v>14.869409903552</v>
       </c>
       <c r="S9">
-        <v>0.3052262820399106</v>
+        <v>0.006403984768454145</v>
       </c>
       <c r="T9">
-        <v>0.3379406949622875</v>
+        <v>0.007167987435197204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H10">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I10">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J10">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.067451333333333</v>
+        <v>1.923966</v>
       </c>
       <c r="N10">
-        <v>3.202354</v>
+        <v>5.771898</v>
       </c>
       <c r="O10">
-        <v>0.0229121493227341</v>
+        <v>0.04117992707057289</v>
       </c>
       <c r="P10">
-        <v>0.02536789300533437</v>
+        <v>0.04609273920797539</v>
       </c>
       <c r="Q10">
-        <v>3.236725221299111</v>
+        <v>0.119096060688</v>
       </c>
       <c r="R10">
-        <v>29.130526991692</v>
+        <v>1.071864546192</v>
       </c>
       <c r="S10">
-        <v>0.01220727673341564</v>
+        <v>0.0004616325914870277</v>
       </c>
       <c r="T10">
-        <v>0.01351566305272501</v>
+        <v>0.00051670588471048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H11">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I11">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J11">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.8654315</v>
+        <v>11.1186085</v>
       </c>
       <c r="N11">
-        <v>23.730863</v>
+        <v>22.237217</v>
       </c>
       <c r="O11">
-        <v>0.2546837779083819</v>
+        <v>0.23797899087419</v>
       </c>
       <c r="P11">
-        <v>0.187987334788174</v>
+        <v>0.1775801034412176</v>
       </c>
       <c r="Q11">
-        <v>35.97835348401233</v>
+        <v>0.6882566909613334</v>
       </c>
       <c r="R11">
-        <v>215.870120904074</v>
+        <v>4.129540145768001</v>
       </c>
       <c r="S11">
-        <v>0.1356919995870728</v>
+        <v>0.002667776902286575</v>
       </c>
       <c r="T11">
-        <v>0.1001570557965731</v>
+        <v>0.001990697147365377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.032199333333333</v>
+        <v>0.06190133333333334</v>
       </c>
       <c r="H12">
-        <v>9.096598</v>
+        <v>0.185704</v>
       </c>
       <c r="I12">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="J12">
-        <v>0.5327861896091618</v>
+        <v>0.01121013620776686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.769714</v>
+        <v>2.755806999999999</v>
       </c>
       <c r="N12">
-        <v>8.309142000000001</v>
+        <v>8.267420999999999</v>
       </c>
       <c r="O12">
-        <v>0.05945011146419212</v>
+        <v>0.05898437460982898</v>
       </c>
       <c r="P12">
-        <v>0.06582202505473476</v>
+        <v>0.06602127758937165</v>
       </c>
       <c r="Q12">
-        <v>8.398324944324001</v>
+        <v>0.1705881277093333</v>
       </c>
       <c r="R12">
-        <v>75.58492449891601</v>
+        <v>1.535293149384</v>
       </c>
       <c r="S12">
-        <v>0.03167419835884687</v>
+        <v>0.0006612228735061278</v>
       </c>
       <c r="T12">
-        <v>0.03506906592127092</v>
+        <v>0.0007401075143876417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06190133333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.185704</v>
+      </c>
+      <c r="I13">
+        <v>0.01121013620776686</v>
+      </c>
+      <c r="J13">
+        <v>0.01121013620776686</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.411715</v>
+      </c>
+      <c r="N13">
+        <v>1.235145</v>
+      </c>
+      <c r="O13">
+        <v>0.008812210649180346</v>
+      </c>
+      <c r="P13">
+        <v>0.009863517402600455</v>
+      </c>
+      <c r="Q13">
+        <v>0.02548570745333334</v>
+      </c>
+      <c r="R13">
+        <v>0.22937136708</v>
+      </c>
+      <c r="S13">
+        <v>9.878608166884527E-05</v>
+      </c>
+      <c r="T13">
+        <v>0.0001105713735708299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H14">
+        <v>16.086368</v>
+      </c>
+      <c r="I14">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J14">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.8207075</v>
+      </c>
+      <c r="N14">
+        <v>7.641415</v>
+      </c>
+      <c r="O14">
+        <v>0.08177715001615976</v>
+      </c>
+      <c r="P14">
+        <v>0.06102217135072575</v>
+      </c>
+      <c r="Q14">
+        <v>20.48710228845334</v>
+      </c>
+      <c r="R14">
+        <v>122.92261373072</v>
+      </c>
+      <c r="S14">
+        <v>0.07941080558705209</v>
+      </c>
+      <c r="T14">
+        <v>0.05925640334341187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H15">
+        <v>16.086368</v>
+      </c>
+      <c r="I15">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J15">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>26.69016266666667</v>
+      </c>
+      <c r="N15">
+        <v>80.070488</v>
+      </c>
+      <c r="O15">
+        <v>0.571267346780068</v>
+      </c>
+      <c r="P15">
+        <v>0.6394201910081091</v>
+      </c>
+      <c r="Q15">
+        <v>143.1159262119538</v>
+      </c>
+      <c r="R15">
+        <v>1288.043335907584</v>
+      </c>
+      <c r="S15">
+        <v>0.5547368697052738</v>
+      </c>
+      <c r="T15">
+        <v>0.620917609216594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H16">
+        <v>16.086368</v>
+      </c>
+      <c r="I16">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J16">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.923966</v>
+      </c>
+      <c r="N16">
+        <v>5.771898</v>
+      </c>
+      <c r="O16">
+        <v>0.04117992707057289</v>
+      </c>
+      <c r="P16">
+        <v>0.04609273920797539</v>
+      </c>
+      <c r="Q16">
+        <v>10.316541698496</v>
+      </c>
+      <c r="R16">
+        <v>92.84887528646401</v>
+      </c>
+      <c r="S16">
+        <v>0.03998832414732043</v>
+      </c>
+      <c r="T16">
+        <v>0.04475897670065456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H17">
+        <v>16.086368</v>
+      </c>
+      <c r="I17">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J17">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.1186085</v>
+      </c>
+      <c r="N17">
+        <v>22.237217</v>
+      </c>
+      <c r="O17">
+        <v>0.23797899087419</v>
+      </c>
+      <c r="P17">
+        <v>0.1775801034412176</v>
+      </c>
+      <c r="Q17">
+        <v>59.61934265964268</v>
+      </c>
+      <c r="R17">
+        <v>357.716055957856</v>
+      </c>
+      <c r="S17">
+        <v>0.2310927120152603</v>
+      </c>
+      <c r="T17">
+        <v>0.172441556935067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.032199333333333</v>
-      </c>
-      <c r="H13">
-        <v>9.096598</v>
-      </c>
-      <c r="I13">
-        <v>0.5327861896091618</v>
-      </c>
-      <c r="J13">
-        <v>0.5327861896091618</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.531414666666667</v>
-      </c>
-      <c r="N13">
-        <v>7.594244</v>
-      </c>
-      <c r="O13">
-        <v>0.05433517110265682</v>
-      </c>
-      <c r="P13">
-        <v>0.06015886102798208</v>
-      </c>
-      <c r="Q13">
-        <v>7.675753864656889</v>
-      </c>
-      <c r="R13">
-        <v>69.08178478191201</v>
-      </c>
-      <c r="S13">
-        <v>0.02894902877354637</v>
-      </c>
-      <c r="T13">
-        <v>0.03205181033832567</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H18">
+        <v>16.086368</v>
+      </c>
+      <c r="I18">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J18">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.755806999999999</v>
+      </c>
+      <c r="N18">
+        <v>8.267420999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.05898437460982898</v>
+      </c>
+      <c r="P18">
+        <v>0.06602127758937165</v>
+      </c>
+      <c r="Q18">
+        <v>14.77697517965867</v>
+      </c>
+      <c r="R18">
+        <v>132.992776616928</v>
+      </c>
+      <c r="S18">
+        <v>0.05727757330610554</v>
+      </c>
+      <c r="T18">
+        <v>0.06411085294880509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.362122666666667</v>
+      </c>
+      <c r="H19">
+        <v>16.086368</v>
+      </c>
+      <c r="I19">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="J19">
+        <v>0.9710635008845373</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.411715</v>
+      </c>
+      <c r="N19">
+        <v>1.235145</v>
+      </c>
+      <c r="O19">
+        <v>0.008812210649180346</v>
+      </c>
+      <c r="P19">
+        <v>0.009863517402600455</v>
+      </c>
+      <c r="Q19">
+        <v>2.207666333706667</v>
+      </c>
+      <c r="R19">
+        <v>19.86899700336</v>
+      </c>
+      <c r="S19">
+        <v>0.008557216123525068</v>
+      </c>
+      <c r="T19">
+        <v>0.009578101740004756</v>
       </c>
     </row>
   </sheetData>
